--- a/biology/Zoologie/Eupelmidae/Eupelmidae.xlsx
+++ b/biology/Zoologie/Eupelmidae/Eupelmidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eupelmidae sont une famille d'hyménoptères de la super-famille des Chalcidoidea, dont les espèces sont des parasitoïdes de divers ordres d'insectes ou, pour certains, d'araignées.
-Elle se divise en trois sous-familles[1], une soixantaine de genres et plus de 900 espèces décrites[2]. Eupelmus est le genre type.
+Elle se divise en trois sous-familles, une soixantaine de genres et plus de 900 espèces décrites. Eupelmus est le genre type.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Eupelmidae présentent un corps allongé (1,3 à 7,5 mm), à éclat métallique le plus souvent noir, parfois orange ou jaune. 
 Les antennes sont en massue ovoïde, le mésonotum est plus ou moins saillant, sa partie centrale est concave ou creusée de plusieurs sillons. 
@@ -551,7 +565,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des endoparasites larvaires de lépidoptères, homoptères, hyménoptères, coléoptères, neuroptères, orthoptères ainsi que de blattes. Des espèces sont prédatrices d'œufs ou de larves d'insectes ou d'araignées. 
 Quelques-uns sont endoparasitoïdes d'œufs de lépidoptères, orthoptères et hémiptères (Anastatus) et de Mantispidae. 
@@ -587,9 +603,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 juin 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 juin 2021) :
 Calosotinae
 Eupelminae
 Neanastatinae</t>
@@ -620,9 +638,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (20 juin 2021)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (20 juin 2021) :
 Anastatus Motschulsky, 1859
 Arachnophaga Ashmead, 1896
 Archaeopelma Gibson, 1989
